--- a/Abundant Apples/appleDatabase.xlsx
+++ b/Abundant Apples/appleDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanlegg/Desktop/Abundant Apples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E218824-8875-EE4C-8837-FE2B62D8F752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F625FE58-8984-7B4E-8A26-4A511B56D630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{17B3DAD8-B0A9-0147-BAF0-6BC4F2C34849}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{17B3DAD8-B0A9-0147-BAF0-6BC4F2C34849}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="166">
   <si>
     <t>Breeds</t>
   </si>
@@ -44,57 +44,24 @@
     <t>O'Brien Farms</t>
   </si>
   <si>
-    <t>Fuji, Gala, Granny Smith, Red Delicious, Pink Lady, Koru, Cosmic Crisp</t>
-  </si>
-  <si>
     <t>Lopez Orchards</t>
   </si>
   <si>
-    <t>Red Delicious, Golden Delicious, Gala, Honeycrisp, Cosmic Crisp</t>
-  </si>
-  <si>
     <t>MM Orchards</t>
   </si>
   <si>
-    <t>Gala, KIKU, Ambrosia, Fuji, Honeycrisp, Red Delicious, Cosmic Crisp</t>
-  </si>
-  <si>
     <t>CMI Orchards</t>
   </si>
   <si>
-    <t>KIKU, Kanzi, Smitten, Honeycrisp, Gala</t>
-  </si>
-  <si>
     <t>Orondo Orchards</t>
   </si>
   <si>
-    <t>Gala, Honeycrisp, Fuji, Envy, Sugarbee</t>
-  </si>
-  <si>
     <t>Carleton Orchards</t>
   </si>
   <si>
-    <t>Stennes Orchards</t>
-  </si>
-  <si>
-    <t>Fuji, Honeycrisp, Gala, Granny Smith, Golden Delicious</t>
-  </si>
-  <si>
     <t>Schoenwald Orchards</t>
   </si>
   <si>
-    <t>Cosmic Crisp, Pink Lady, Rockit, Sugarbee, Gala, Golden Delicious, Red Delicious, Granny Smith, Honeycrisp</t>
-  </si>
-  <si>
-    <t>Golden Delicious, Granny Smith, Fuji, Honeycrisp, Pink Lady, Cosmic Crisp, Gala</t>
-  </si>
-  <si>
-    <t>Thornton's Farms</t>
-  </si>
-  <si>
-    <t>SugarBee, Cosmic Crisp, Honeycrisp, Fuji, Granny Smith, Pink Lady</t>
-  </si>
-  <si>
     <t>Longitude</t>
   </si>
   <si>
@@ -113,9 +80,6 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>Cowiche</t>
-  </si>
-  <si>
     <t>Quincy</t>
   </si>
   <si>
@@ -128,15 +92,9 @@
     <t>Manson</t>
   </si>
   <si>
-    <t>Pateros</t>
-  </si>
-  <si>
     <t>Brewster</t>
   </si>
   <si>
-    <t>Tonasket</t>
-  </si>
-  <si>
     <t>orchardName</t>
   </si>
   <si>
@@ -149,9 +107,6 @@
     <t>Oregon</t>
   </si>
   <si>
-    <t>["Gravenstein", "Akane", "Gala", "Honeycrisp", "Jonagold", "Empire", "Rome Beauty", "Golden Delicious", "Spitzenberg", "Braeburn", "Fuji"]</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -162,16 +117,441 @@
   </si>
   <si>
     <t>34137 Seavey Loop Rd, Eugene, OR 97405</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>['Gravenstein', 'Akane', 'Gala', 'Honeycrisp', 'Jonagold', 'Empire', 'Rome Beauty', 'Golden Delicious', 'Spitzenberg', 'Braeburn', 'Fuji']</t>
+  </si>
+  <si>
+    <t>O'Brien, 45402 N O'Brien Rd, Prosser, WA 99350</t>
+  </si>
+  <si>
+    <t>121 Ehler Rd, Yakima, WA 98908</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Lopez+Orchard/@46.6262081,-120.6284517,15z/data=!4m6!3m5!1s0x54976090b697be21:0x1be8314a12a72567!8m2!3d46.6265404!4d-120.6236212!16s%2Fg%2F1tfbhfs4?entry=ttu</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/O'Brien+Farms+LLC/@46.2813099,-119.6690054,13z/data=!4m6!3m5!1s0x549813635d5028eb:0x7adfb15020ca9444!8m2!3d46.280252!4d-119.641164!16s%2Fg%2F1tdwpth0?entry=ttu</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>(509) 787 9082</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Double+M+Orchards/@47.2654592,-119.8048845,12.12z/data=!4m6!3m5!1s0x5499638b437d5e3d:0xa2f65f0ba3c66014!8m2!3d47.2616831!4d-119.7684349!16s%2Fg%2F11cjj9xqb9?entry=ttu</t>
+  </si>
+  <si>
+    <t>12029 Adams Rd N, Quincy, WA 98848</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/CMI+Orchards+LLC/@47.4607933,-120.3370753,13.95z/data=!4m6!3m5!1s0x549bcba014ceaaab:0x156e3c8e570a4610!8m2!3d47.4633357!4d-120.3240565!16s%2Fg%2F11hy9pb_dl?entry=ttu</t>
+  </si>
+  <si>
+    <t>2525 Euclid Ave, Wenatchee, WA 98801</t>
+  </si>
+  <si>
+    <t>21466 State Highway 97 Orondo, WA 98843</t>
+  </si>
+  <si>
+    <t>630 Sunnyside Blvd SE, Lake Stevens, WA 98258</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Carleton+Farms/@47.9846278,-122.1603424,12.88z/data=!4m6!3m5!1s0x549aab0ee922cfdb:0xe133e23e55e8dc27!8m2!3d47.9900135!4d-122.134392!16s%2Fg%2F1tncsm5y?entry=ttu</t>
+  </si>
+  <si>
+    <t>(425) 343 4963</t>
+  </si>
+  <si>
+    <t>['Fuji', 'Gala', 'Granny Smith', 'Red Delicious', 'Pink Lady', 'Koru', 'Cosmic Crisp']</t>
+  </si>
+  <si>
+    <t>['Red Delicious', 'Golden Delicious', 'Gala', 'Honeycrisp', 'Cosmic Crisp']</t>
+  </si>
+  <si>
+    <t>['Gala', 'KIKU', 'Ambrosia', 'Fuji', 'Honeycrisp', 'Red Delicious', 'Cosmic Crisp']</t>
+  </si>
+  <si>
+    <t>['KIKU', 'Kanzi', 'Smitten', 'Honeycrisp', 'Gala']</t>
+  </si>
+  <si>
+    <t>['Gala', 'Honeycrisp', 'Fuji', 'Envy', 'Sugarbee']</t>
+  </si>
+  <si>
+    <t>['Golden Delicious', 'Granny Smith', 'Fuji', 'Honeycrisp', 'Pink Lady', 'Cosmic Crisp', 'Gala']</t>
+  </si>
+  <si>
+    <t>['Cosmic Crisp', 'Pink Lady', 'Rockit', 'Sugarbee', 'Gala', 'Golden Delicious', 'Red Delicious', 'Granny Smith', 'Honeycrisp']</t>
+  </si>
+  <si>
+    <t>Yakima</t>
+  </si>
+  <si>
+    <t>Valley View Orchards</t>
+  </si>
+  <si>
+    <t>(541) 488 2840</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Valley+View+Orchard/@42.2454641,-122.7434766,14.31z/data=!3m1!5s0x54cf73c811fa8591:0x18eedc7c5ce33717!4m6!3m5!1s0x54cf73b8048c4f2d:0x52fe5b0e9c99897b!8m2!3d42.2475203!4d-122.735097!16s%2Fg%2F1tjy16t1?entry=ttu</t>
+  </si>
+  <si>
+    <t>1800 N Valley View Rd, Ashland, OR 97520</t>
+  </si>
+  <si>
+    <t>['Gravenstein', 'New Town Pippin']</t>
+  </si>
+  <si>
+    <t>Ashland</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>https://valleyvieworchardorganics.com/</t>
+  </si>
+  <si>
+    <t>Sherwood Orchards</t>
+  </si>
+  <si>
+    <t>23995 SW Pacific Hwy, Sherwood, OR 97140</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Sherwood+Orchards/@45.3460511,-122.8819225,14.82z/data=!4m6!3m5!1s0x54956c82d1da16cb:0x8a1a6e4a595c53bc!8m2!3d45.3474405!4d-122.8757229!16s%2Fg%2F1tdk9stk?entry=ttu</t>
+  </si>
+  <si>
+    <t>(503) 625 7705</t>
+  </si>
+  <si>
+    <t>Sherwood</t>
+  </si>
+  <si>
+    <t>https://www.queenerfarm.com/</t>
+  </si>
+  <si>
+    <t>40385 Queener Dr, Scio, OR 97374</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Queener+Farm/@44.7655144,-122.7981439,14.62z/data=!4m10!1m2!2m1!1sapple+orchards+in+oregon!3m6!1s0x54bff51ca69185d5:0xe52626b2c1585224!8m2!3d44.7666073!4d-122.7968304!15sChhhcHBsZSBvcmNoYXJkcyBpbiBvcmVnb25aGiIYYXBwbGUgb3JjaGFyZHMgaW4gb3JlZ29ukgEEZmFybZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSRExXWXRTV05CRUFF4AEA!16s%2Fg%2F1tgw4rq7?entry=ttu</t>
+  </si>
+  <si>
+    <t>Queener Farm</t>
+  </si>
+  <si>
+    <t>(503) 930 8280</t>
+  </si>
+  <si>
+    <t>Scio</t>
+  </si>
+  <si>
+    <t>Mt View Orchards</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Mt+View+Orchards/@45.5394122,-121.636731,13.34z/data=!4m6!3m5!1s0x5495fc30fb1d1fdd:0x246bc4700d1f9e63!8m2!3d45.5366083!4d-121.6231454!16s%2Fg%2F12601wlft?entry=ttu</t>
+  </si>
+  <si>
+    <t>6670 Trout Creek Ridge Rd, Mt Hood, OR 97041</t>
+  </si>
+  <si>
+    <t>(541) 352 6828</t>
+  </si>
+  <si>
+    <t>Mt Hood</t>
+  </si>
+  <si>
+    <t>https://www.mtvieworchards.com/</t>
+  </si>
+  <si>
+    <t>['Centennial Crab Apples', 'Lodi Apple', 'Belle de Boskoop', 'Honeycrisp', 'Blairmont', 'Blue Pearmain', 'Bramley's Seedling', 'Coles Quince Apple', 'Devonshire Crimson Queen', 'Duchess of Oldenburg', 'Empire', 'Erwin Bauer', 'Lubsk Queen', 'Gravenstein', 'Karmijn de Sonnaville', 'Almata', 'Zabergau Reinette', 'Whitney Crab Apple', 'Lady Apples', 'Queen Bee', 'Knobbed Russet', 'Hauer Pippin', 'Baldwin', 'Dummelow's Seedling', 'Jonagold']</t>
+  </si>
+  <si>
+    <t>Kiyokawa Family Orchards</t>
+  </si>
+  <si>
+    <t>5625 Hutson Dr, Mt Hood, OR 97041</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Kiyokawa+Family+Orchards/@45.4971702,-121.607152,15.06z/data=!4m6!3m5!1s0x5495feddd005b8c3:0xe0a5e731b2ecf273!8m2!3d45.4970125!4d-121.5964673!16s%2Fg%2F1tmgc465?entry=ttu</t>
+  </si>
+  <si>
+    <t>(541) 352 7115</t>
+  </si>
+  <si>
+    <t>(541) 741 4790</t>
+  </si>
+  <si>
+    <t>(509) 888 8106</t>
+  </si>
+  <si>
+    <t>(509) 663 1955</t>
+  </si>
+  <si>
+    <t>(509) 973 2700</t>
+  </si>
+  <si>
+    <t>(509) 966 4697</t>
+  </si>
+  <si>
+    <t>https://kiyokawafamilyorchards.com/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Detering+Orchards/@44.2159136,-123.149346,14.49z/data=!4m6!3m5!1s0x54c0feab0eeb3041:0x893152c3ddfaade8!8m2!3d44.2169148!4d-123.1364644!16s%2Fg%2F1tc_kwbr?entry=ttu</t>
+  </si>
+  <si>
+    <t>30946 Wyatt Dr, Harrisburg, OR 97446</t>
+  </si>
+  <si>
+    <t>(541) 995 6341</t>
+  </si>
+  <si>
+    <t>https://www.deteringorchards.com/</t>
+  </si>
+  <si>
+    <t>Detering Orchards</t>
+  </si>
+  <si>
+    <t>['Gravenstein', 'Early McIntosh', 'Prime Red', 'Golden Supreme', 'Honeycrisp', 'McIntosh', 'Early Fuji', 'Gala', 'Jonagold', 'Ozark Gold', 'Criterion', 'Spartan', 'Golden Delicious', 'Cameo', 'Empire']</t>
+  </si>
+  <si>
+    <t>Harrisburg</t>
+  </si>
+  <si>
+    <t>Curran Apple Orchards</t>
+  </si>
+  <si>
+    <t>3920 Grandview Dr W, University Place, WA 98466</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Curran+Apple+Orchard+Park/@47.221403,-122.5641553,16.1z/data=!4m6!3m5!1s0x5491aa5968d3fc8f:0x91f4b46dfacb7100!8m2!3d47.221124!4d-122.5613737!16s%2Fg%2F1tddrxhh?entry=ttu</t>
+  </si>
+  <si>
+    <t>(253) 460 2530</t>
+  </si>
+  <si>
+    <t>University Place</t>
+  </si>
+  <si>
+    <t>http://www.curranappleorchard.com/</t>
+  </si>
+  <si>
+    <t>Butler's Farm</t>
+  </si>
+  <si>
+    <t>Gig Harbor</t>
+  </si>
+  <si>
+    <t>3414 137th St NW, Gig Harbor, WA 98332</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Butler's+Farm/@47.3824993,-122.5869154,17z/data=!3m1!4b1!4m6!3m5!1s0x54904dbd6a276717:0xd6be4d0301acbb8f!8m2!3d47.3824957!4d-122.5843405!16s%2Fg%2F11c1qxb29d?entry=ttu</t>
+  </si>
+  <si>
+    <t>(253) 241 9594</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Finnriver+Farm+%26+Cidery/@48.0099734,-122.7752561,15.66z/data=!4m6!3m5!1s0x548fe7b8359c5467:0x190528c8652a166b!8m2!3d48.0097371!4d-122.7694043!16s%2Fg%2F1trcg3n4?entry=ttu</t>
+  </si>
+  <si>
+    <t>124 Center Rd, Chimacum, WA 98325</t>
+  </si>
+  <si>
+    <t>(360) 339 8478</t>
+  </si>
+  <si>
+    <t>Finnriver Farm</t>
+  </si>
+  <si>
+    <t>Chimacum</t>
+  </si>
+  <si>
+    <t>https://www.finnriver.com/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Adair's+Orchards/@44.6291719,-122.9453559,17z/data=!3m1!4b1!4m6!3m5!1s0x54c07272a9399e87:0x5be0c263cf384fbd!8m2!3d44.6291681!4d-122.942781!16s%2Fg%2F113jf75wl?entry=ttu</t>
+  </si>
+  <si>
+    <t>36452 OR-226, Albany, OR 97322</t>
+  </si>
+  <si>
+    <t>(541) 928 6606</t>
+  </si>
+  <si>
+    <t>Aldair's Orchards</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>6200 OR-35, Mt Hood, OR 97041</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Draper+Girls+Country+Farm/@45.5491646,-121.5737284,15.78z/data=!4m6!3m5!1s0x5495fdfaa9e6cc0d:0x5591500b760d48c0!8m2!3d45.5498509!4d-121.5707139!16s%2Fg%2F1vj5zxwz?entry=ttu</t>
+  </si>
+  <si>
+    <t>(541) 490 8113</t>
+  </si>
+  <si>
+    <t>Draper Girls Country Farm</t>
+  </si>
+  <si>
+    <t>https://www.drapergirlscountryfarm.com/</t>
+  </si>
+  <si>
+    <t>['Akane', 'Almata', 'Ambrosia', 'Arkansas Black', 'Ashmead's Kernel', 'Blondee', 'Braeburn', 'Black Gilliflower', 'Calville Blanc D'Hiver', 'Cameo', 'Cortland', 'Cox's Orange Pippin', 'Crimson Crisp', 'Crimson Gold', 'Crimson Topaz', 'Criterion', 'Dandee Red', 'Dolgo Crab', 'Earligold', 'Elstar', 'Empire', 'Evercrisp', 'Fiesta Red Pippin', 'Fuji', 'Gala', 'Ginger Gold', 'Glocken Apfel', 'Golden Delicious', 'Golden Russet', 'Golden Supreme', 'Granny Smith', 'Gravenstein', 'Grimes Golden', 'Hawaii', 'Hanner's Jumbo', 'Hokuto', 'Hokotui', 'Honeycrisp', 'Hudsen's Golden Gem', 'Idared', 'Initial', 'Jonagold', 'Jonathan', 'Kandil Sinap', 'Kingston Black', 'Lady Apples', 'Liberty', 'Linda Mac', 'Little Devil's', 'Lodi', 'Macoun', 'Manchurian Crab', 'McIntosh', 'Melrose', 'Mtn. Rose', 'Mutsu', 'Newtown Pippin', 'Northern Spy', 'Orin', 'Ortley', 'Pink Delight', 'Pink Pearl', 'Pristine', 'Rall's Janet', 'Red Delicious', 'Redfree', 'Red Golden Delicious', 'Red Rome', 'Red Ruben', 'Ribston Pippin', 'Roxbury Russett', 'Rubinette', 'Ruby Jon', 'RubyMac', 'Sansa', 'Scarlet Surprise', 'Sekai Ichi', 'Smoothie', 'Sonata', 'Spartan', 'Spigold', 'Spitzenberg', 'Splendour', 'Spokane Beauty', 'Summer Pearmain', 'Sweetie', 'Swiss Gourmet', 'Tsugaru', 'Westfield', 'Wickson Crabapples', 'Winesap', 'Winter Banana', 'Wolf River', 'Zabergau Reinette', 'Zestar']</t>
+  </si>
+  <si>
+    <t>Hentze Family Farm</t>
+  </si>
+  <si>
+    <t>Junction City</t>
+  </si>
+  <si>
+    <t>https://hentzefamilyfarm.com/</t>
+  </si>
+  <si>
+    <t>30045 Hentze Ln, Junction City, OR 97448</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Hentze+Family+Farm/@44.2191948,-123.1682528,17z/data=!3m1!4b1!4m6!3m5!1s0x54c0febc60c5b9c1:0x4c41cdfd6b2e7ac6!8m2!3d44.219191!4d-123.1656779!16s%2Fg%2F1ths9255?entry=ttu</t>
+  </si>
+  <si>
+    <t>(541) 998 8944</t>
+  </si>
+  <si>
+    <t>Tangled Orchards</t>
+  </si>
+  <si>
+    <t>84822 Cloverdale Rd, Creswell, OR 97426</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/TANGLED+ORCHARD+FARM/@43.968433,-122.9693825,17z/data=!3m1!4b1!4m6!3m5!1s0x54c12090cea4f6e7:0x7b2435a3d3fe7333!8m2!3d43.9684292!4d-122.9668076!16s%2Fg%2F11c4smxx6_?entry=ttu</t>
+  </si>
+  <si>
+    <t>(541) 554 1862</t>
+  </si>
+  <si>
+    <t>Creswell</t>
+  </si>
+  <si>
+    <t>https://www.tangledorchardfarm.com/</t>
+  </si>
+  <si>
+    <t>https://www.herrickfarms.com/home</t>
+  </si>
+  <si>
+    <t>88088 Millican Rd, Springfield, OR 97478</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Herrick+Farms/@44.0615987,-122.8312919,17z/data=!3m1!4b1!4m6!3m5!1s0x54c0dd67bdc4e8fd:0xd4344494f89c99f0!8m2!3d44.0615949!4d-122.828717!16s%2Fg%2F1txc6rxt?entry=ttu</t>
+  </si>
+  <si>
+    <t>(541) 741 1046</t>
+  </si>
+  <si>
+    <t>Herrick Farms</t>
+  </si>
+  <si>
+    <t>Springfield</t>
+  </si>
+  <si>
+    <t>91455 River Rd, Junction City, OR 97448</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Thistledown+Farm/@44.1446964,-123.1547726,16.14z/data=!4m6!3m5!1s0x54c0fd38a6a826cb:0x4ea2c4f84d9711a1!8m2!3d44.1453308!4d-123.150301!16s%2Fg%2F1tgdsw5k?entry=ttu</t>
+  </si>
+  <si>
+    <t>(541) 689 2019</t>
+  </si>
+  <si>
+    <t>https://thistledownfarm.net/</t>
+  </si>
+  <si>
+    <t>Thistledown Farm</t>
+  </si>
+  <si>
+    <t>['Honeycrisp']</t>
+  </si>
+  <si>
+    <t>https://johnsonfarmseugene.com/</t>
+  </si>
+  <si>
+    <t>89733 Armitage Rd, Eugene, OR 97408</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Johnson+Vegetable+Farms/@44.1004834,-123.0594459,14.33z/data=!4m6!3m5!1s0x54c0e3c8f70e0fe7:0xa03a7671e3a49133!8m2!3d44.1011355!4d-123.0459528!16s%2Fg%2F11b5wsjm9z?entry=ttu</t>
+  </si>
+  <si>
+    <t>(541) 343 9594</t>
+  </si>
+  <si>
+    <t>Johnson Farms</t>
+  </si>
+  <si>
+    <t>E.Z. Orchards</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>5504 Hazelgreen Rd NE, Salem, OR 97305</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/E.Z.+Orchards+Farm+Market/@45.0046378,-122.9503365,17z/data=!3m1!4b1!4m6!3m5!1s0x54bffd9e9147b7d5:0xe7ba86d3c0794677!8m2!3d45.004634!4d-122.9477616!16s%2Fg%2F1tm0swz5?entry=ttu</t>
+  </si>
+  <si>
+    <t>(503) 393 1506</t>
+  </si>
+  <si>
+    <t>https://www.ezorchards.com/</t>
+  </si>
+  <si>
+    <t>Three Cedars Farm</t>
+  </si>
+  <si>
+    <t>5751 Wallace Rd NW, Salem, OR 97304</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Three+Cedars+Farm/@45.0183789,-123.0918766,15.93z/data=!4m6!3m5!1s0x549555ebaa5c1615:0xd01864de2c6b55a1!8m2!3d45.0174548!4d-123.0870243!16s%2Fg%2F11jgh1jnl4?entry=ttu</t>
+  </si>
+  <si>
+    <t>(909) 851 4877</t>
+  </si>
+  <si>
+    <t>B&amp;P Hitz Farm</t>
+  </si>
+  <si>
+    <t>Woodburn</t>
+  </si>
+  <si>
+    <t>14070 Wilco Hwy NE #214, Woodburn, OR 97071</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/B+%26+P+Hitz+Fruit+Farm/@45.1242261,-122.807259,17z/data=!3m1!4b1!4m6!3m5!1s0x54955e5e7dac0279:0x364155c5f05b3d4!8m2!3d45.1242223!4d-122.8046841!16s%2Fg%2F1thq0f6c?entry=ttu</t>
+  </si>
+  <si>
+    <t>(503) 982 9307</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,13 +574,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,249 +896,970 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B826EAD-5131-9443-8CF3-AB6C2AB47C6F}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>46.280257345431899</v>
+      </c>
+      <c r="D2">
+        <v>-119.64109341314899</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>46.628486412788902</v>
+      </c>
+      <c r="D3">
+        <v>-120.617528020812</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>47.261695877611999</v>
+      </c>
+      <c r="D4">
+        <v>-119.768348564154</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>47.402538711452699</v>
+      </c>
+      <c r="D5">
+        <v>-120.21688944976999</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>47.648948236489503</v>
+      </c>
+      <c r="D6">
+        <v>-120.211215325848</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>46.280257345431899</v>
-      </c>
-      <c r="C2">
-        <v>-119.64109341314899</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>46.628486412788902</v>
-      </c>
-      <c r="C3">
-        <v>-120.617528020812</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>47.261695877611999</v>
-      </c>
-      <c r="C4">
-        <v>-119.768348564154</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C7">
+        <v>47.9159112473438</v>
+      </c>
+      <c r="D7">
+        <v>-120.18478961563299</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>47.402538711452699</v>
-      </c>
-      <c r="C5">
-        <v>-120.21688944976999</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>47.648948236489503</v>
-      </c>
-      <c r="C6">
-        <v>-120.211215325848</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>47.9159112473438</v>
-      </c>
-      <c r="C7">
-        <v>-120.18478961563299</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>48.072853596587798</v>
-      </c>
       <c r="C8">
-        <v>-119.919999291257</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
+        <v>48.101604030877802</v>
+      </c>
+      <c r="D8">
+        <v>-119.788161597366</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>44.011659000000002</v>
+      </c>
+      <c r="D9">
+        <v>-123.005628</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>42.247242</v>
+      </c>
+      <c r="D10">
+        <v>-122.734979</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>45.347355</v>
+      </c>
+      <c r="D11">
+        <v>-122.875726</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>44.766984999999998</v>
+      </c>
+      <c r="D12">
+        <v>-122.79714300000001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>45.536512000000002</v>
+      </c>
+      <c r="D13">
+        <v>-121.62325199999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>45.496889000000003</v>
+      </c>
+      <c r="D14">
+        <v>-121.596412</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15">
+        <v>44.216504999999998</v>
+      </c>
+      <c r="D15">
+        <v>-123.13712599999999</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>48.101604030877802</v>
-      </c>
-      <c r="C9">
-        <v>-119.788161597366</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16">
+        <v>47.220799</v>
+      </c>
+      <c r="D16">
+        <v>-122.561556</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>47.382604638615398</v>
+      </c>
+      <c r="D17">
+        <v>-122.583739688343</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18">
+        <v>48.009982460412402</v>
+      </c>
+      <c r="D18">
+        <v>-122.76720701047699</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19">
+        <v>44.629290236941401</v>
+      </c>
+      <c r="D19">
+        <v>-122.942105086634</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20">
+        <v>45.550027955326797</v>
+      </c>
+      <c r="D20">
+        <v>-121.569568845235</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21">
+        <v>44.219298618533998</v>
+      </c>
+      <c r="D21">
+        <v>-123.16510927501299</v>
+      </c>
+      <c r="E21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22">
+        <v>43.968591328338803</v>
+      </c>
+      <c r="D22">
+        <v>-122.966775416817</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23">
+        <v>44.061579451764203</v>
+      </c>
+      <c r="D23">
+        <v>-122.82874918982699</v>
+      </c>
+      <c r="E23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24">
+        <v>44.145266799359902</v>
+      </c>
+      <c r="D24">
+        <v>-123.150363998016</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25">
+        <v>44.100948222910901</v>
+      </c>
+      <c r="D25">
+        <v>-123.04636495542</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" t="s">
+        <v>149</v>
+      </c>
+      <c r="K25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26">
+        <v>45.004527769510503</v>
+      </c>
+      <c r="D26">
+        <v>-122.947804518616</v>
+      </c>
+      <c r="E26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27">
+        <v>45.017385431604801</v>
+      </c>
+      <c r="D27">
+        <v>-123.08706450535399</v>
+      </c>
+      <c r="E27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" t="s">
+        <v>159</v>
+      </c>
+      <c r="J27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28">
+        <v>45.124146571357599</v>
+      </c>
+      <c r="D28">
+        <v>-122.804662645595</v>
+      </c>
+      <c r="E28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B11">
-        <v>44.011659000000002</v>
-      </c>
-      <c r="C11">
-        <v>-123.005628</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K12" r:id="rId1" xr:uid="{D46C2C50-5842-DF42-BBDB-7F3F046A8882}"/>
+    <hyperlink ref="K14" r:id="rId2" xr:uid="{C4DBA337-AB81-D14B-9324-72AEDBA9B714}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
